--- a/patient_data/patient_64.xlsx
+++ b/patient_data/patient_64.xlsx
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1442,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1484,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1561,19 +1561,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1596,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1638,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1673,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1715,19 +1715,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1792,19 +1792,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1848,13 +1848,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
